--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.526037</v>
+        <v>5.791393</v>
       </c>
       <c r="H2">
-        <v>16.578111</v>
+        <v>17.374179</v>
       </c>
       <c r="I2">
-        <v>0.1907740523064932</v>
+        <v>0.2508946350719245</v>
       </c>
       <c r="J2">
-        <v>0.1907740523064932</v>
+        <v>0.2508946350719244</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.05624166666666</v>
+        <v>5.440305333333334</v>
       </c>
       <c r="N2">
-        <v>33.16872499999999</v>
+        <v>16.320916</v>
       </c>
       <c r="O2">
-        <v>0.2506866656360179</v>
+        <v>0.1071123097215924</v>
       </c>
       <c r="P2">
-        <v>0.2506866656360179</v>
+        <v>0.1071123097215924</v>
       </c>
       <c r="Q2">
-        <v>61.09720053094166</v>
+        <v>31.50694622532934</v>
       </c>
       <c r="R2">
-        <v>549.8748047784749</v>
+        <v>283.562516027964</v>
       </c>
       <c r="S2">
-        <v>0.04782451106258606</v>
+        <v>0.02687390385930988</v>
       </c>
       <c r="T2">
-        <v>0.04782451106258606</v>
+        <v>0.02687390385930987</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.526037</v>
+        <v>5.791393</v>
       </c>
       <c r="H3">
-        <v>16.578111</v>
+        <v>17.374179</v>
       </c>
       <c r="I3">
-        <v>0.1907740523064932</v>
+        <v>0.2508946350719245</v>
       </c>
       <c r="J3">
-        <v>0.1907740523064932</v>
+        <v>0.2508946350719244</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.675932</v>
       </c>
       <c r="O3">
-        <v>0.2394042512635997</v>
+        <v>0.2078855279387566</v>
       </c>
       <c r="P3">
-        <v>0.2394042512635997</v>
+        <v>0.2078855279387566</v>
       </c>
       <c r="Q3">
-        <v>58.347457413828</v>
+        <v>61.149256951092</v>
       </c>
       <c r="R3">
-        <v>525.1271167244521</v>
+        <v>550.3433125598281</v>
       </c>
       <c r="S3">
-        <v>0.04567211915295882</v>
+        <v>0.0521573636689287</v>
       </c>
       <c r="T3">
-        <v>0.04567211915295882</v>
+        <v>0.0521573636689287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.526037</v>
+        <v>5.791393</v>
       </c>
       <c r="H4">
-        <v>16.578111</v>
+        <v>17.374179</v>
       </c>
       <c r="I4">
-        <v>0.1907740523064932</v>
+        <v>0.2508946350719245</v>
       </c>
       <c r="J4">
-        <v>0.1907740523064932</v>
+        <v>0.2508946350719244</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.66651766666667</v>
+        <v>28.38327833333333</v>
       </c>
       <c r="N4">
-        <v>43.999553</v>
+        <v>85.149835</v>
       </c>
       <c r="O4">
-        <v>0.3325452284055311</v>
+        <v>0.5588286527093509</v>
       </c>
       <c r="P4">
-        <v>0.3325452284055311</v>
+        <v>0.5588286527093509</v>
       </c>
       <c r="Q4">
-        <v>81.04771928715365</v>
+        <v>164.3787194567183</v>
       </c>
       <c r="R4">
-        <v>729.429473584383</v>
+        <v>1479.408475110465</v>
       </c>
       <c r="S4">
-        <v>0.06344100079811153</v>
+        <v>0.1402071108892478</v>
       </c>
       <c r="T4">
-        <v>0.06344100079811153</v>
+        <v>0.1402071108892478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.526037</v>
+        <v>5.791393</v>
       </c>
       <c r="H5">
-        <v>16.578111</v>
+        <v>17.374179</v>
       </c>
       <c r="I5">
-        <v>0.1907740523064932</v>
+        <v>0.2508946350719245</v>
       </c>
       <c r="J5">
-        <v>0.1907740523064932</v>
+        <v>0.2508946350719244</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.822425</v>
+        <v>6.408436333333334</v>
       </c>
       <c r="N5">
-        <v>23.467275</v>
+        <v>19.225309</v>
       </c>
       <c r="O5">
-        <v>0.1773638546948513</v>
+        <v>0.1261735096303001</v>
       </c>
       <c r="P5">
-        <v>0.1773638546948513</v>
+        <v>0.1261735096303001</v>
       </c>
       <c r="Q5">
-        <v>43.227009979725</v>
+        <v>37.11377332181234</v>
       </c>
       <c r="R5">
-        <v>389.043089817525</v>
+        <v>334.0239598963111</v>
       </c>
       <c r="S5">
-        <v>0.03383642129283684</v>
+        <v>0.03165625665443808</v>
       </c>
       <c r="T5">
-        <v>0.03383642129283684</v>
+        <v>0.03165625665443807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>25.507599</v>
       </c>
       <c r="I6">
-        <v>0.2935309110814287</v>
+        <v>0.3683465988617928</v>
       </c>
       <c r="J6">
-        <v>0.2935309110814287</v>
+        <v>0.3683465988617928</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.05624166666666</v>
+        <v>5.440305333333334</v>
       </c>
       <c r="N6">
-        <v>33.16872499999999</v>
+        <v>16.320916</v>
       </c>
       <c r="O6">
-        <v>0.2506866656360179</v>
+        <v>0.1071123097215924</v>
       </c>
       <c r="P6">
-        <v>0.2506866656360179</v>
+        <v>0.1071123097215924</v>
       </c>
       <c r="Q6">
-        <v>94.00605962680831</v>
+        <v>46.25637562674267</v>
       </c>
       <c r="R6">
-        <v>846.0545366412748</v>
+        <v>416.307380640684</v>
       </c>
       <c r="S6">
-        <v>0.07358428536010582</v>
+        <v>0.03945445498217951</v>
       </c>
       <c r="T6">
-        <v>0.07358428536010582</v>
+        <v>0.03945445498217951</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>25.507599</v>
       </c>
       <c r="I7">
-        <v>0.2935309110814287</v>
+        <v>0.3683465988617928</v>
       </c>
       <c r="J7">
-        <v>0.2935309110814287</v>
+        <v>0.3683465988617928</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>31.675932</v>
       </c>
       <c r="O7">
-        <v>0.2394042512635997</v>
+        <v>0.2078855279387566</v>
       </c>
       <c r="P7">
-        <v>0.2394042512635997</v>
+        <v>0.2078855279387566</v>
       </c>
       <c r="Q7">
-        <v>89.775219045252</v>
+        <v>89.77521904525199</v>
       </c>
       <c r="R7">
-        <v>807.976971407268</v>
+        <v>807.9769714072679</v>
       </c>
       <c r="S7">
-        <v>0.0702725479901717</v>
+        <v>0.07657392716882921</v>
       </c>
       <c r="T7">
-        <v>0.0702725479901717</v>
+        <v>0.07657392716882921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>25.507599</v>
       </c>
       <c r="I8">
-        <v>0.2935309110814287</v>
+        <v>0.3683465988617928</v>
       </c>
       <c r="J8">
-        <v>0.2935309110814287</v>
+        <v>0.3683465988617928</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.66651766666667</v>
+        <v>28.38327833333333</v>
       </c>
       <c r="N8">
-        <v>43.999553</v>
+        <v>85.149835</v>
       </c>
       <c r="O8">
-        <v>0.3325452284055311</v>
+        <v>0.5588286527093509</v>
       </c>
       <c r="P8">
-        <v>0.3325452284055311</v>
+        <v>0.5588286527093509</v>
       </c>
       <c r="Q8">
-        <v>124.7025504559163</v>
+        <v>241.3297606773517</v>
       </c>
       <c r="R8">
-        <v>1122.322954103247</v>
+        <v>2171.967846096165</v>
       </c>
       <c r="S8">
-        <v>0.09761230386965734</v>
+        <v>0.2058426335720074</v>
       </c>
       <c r="T8">
-        <v>0.09761230386965734</v>
+        <v>0.2058426335720074</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>25.507599</v>
       </c>
       <c r="I9">
-        <v>0.2935309110814287</v>
+        <v>0.3683465988617928</v>
       </c>
       <c r="J9">
-        <v>0.2935309110814287</v>
+        <v>0.3683465988617928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.822425</v>
+        <v>6.408436333333334</v>
       </c>
       <c r="N9">
-        <v>23.467275</v>
+        <v>19.225309</v>
       </c>
       <c r="O9">
-        <v>0.1773638546948513</v>
+        <v>0.1261735096303001</v>
       </c>
       <c r="P9">
-        <v>0.1773638546948513</v>
+        <v>0.1261735096303001</v>
       </c>
       <c r="Q9">
-        <v>66.510426702525</v>
+        <v>54.48794140256567</v>
       </c>
       <c r="R9">
-        <v>598.593840322725</v>
+        <v>490.391472623091</v>
       </c>
       <c r="S9">
-        <v>0.05206177386149385</v>
+        <v>0.04647558313877669</v>
       </c>
       <c r="T9">
-        <v>0.05206177386149385</v>
+        <v>0.04647558313877669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.323390666666667</v>
+        <v>2.834746</v>
       </c>
       <c r="H10">
-        <v>12.970172</v>
+        <v>8.504238000000001</v>
       </c>
       <c r="I10">
-        <v>0.1492553808785702</v>
+        <v>0.1228068209481894</v>
       </c>
       <c r="J10">
-        <v>0.1492553808785702</v>
+        <v>0.1228068209481894</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.05624166666666</v>
+        <v>5.440305333333334</v>
       </c>
       <c r="N10">
-        <v>33.16872499999999</v>
+        <v>16.320916</v>
       </c>
       <c r="O10">
-        <v>0.2506866656360179</v>
+        <v>0.1071123097215924</v>
       </c>
       <c r="P10">
-        <v>0.2506866656360179</v>
+        <v>0.1071123097215924</v>
       </c>
       <c r="Q10">
-        <v>47.80045203007778</v>
+        <v>15.42188378244534</v>
       </c>
       <c r="R10">
-        <v>430.2040682707</v>
+        <v>138.796954042008</v>
       </c>
       <c r="S10">
-        <v>0.03741633376068263</v>
+        <v>0.01315412224132661</v>
       </c>
       <c r="T10">
-        <v>0.03741633376068262</v>
+        <v>0.01315412224132661</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.323390666666667</v>
+        <v>2.834746</v>
       </c>
       <c r="H11">
-        <v>12.970172</v>
+        <v>8.504238000000001</v>
       </c>
       <c r="I11">
-        <v>0.1492553808785702</v>
+        <v>0.1228068209481894</v>
       </c>
       <c r="J11">
-        <v>0.1492553808785702</v>
+        <v>0.1228068209481894</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.675932</v>
       </c>
       <c r="O11">
-        <v>0.2394042512635997</v>
+        <v>0.2078855279387566</v>
       </c>
       <c r="P11">
-        <v>0.2394042512635997</v>
+        <v>0.2078855279387566</v>
       </c>
       <c r="Q11">
-        <v>45.64914292225601</v>
+        <v>29.931073844424</v>
       </c>
       <c r="R11">
-        <v>410.8422863003041</v>
+        <v>269.379664599816</v>
       </c>
       <c r="S11">
-        <v>0.0357323727062975</v>
+        <v>0.02552976080729472</v>
       </c>
       <c r="T11">
-        <v>0.03573237270629749</v>
+        <v>0.02552976080729472</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.323390666666667</v>
+        <v>2.834746</v>
       </c>
       <c r="H12">
-        <v>12.970172</v>
+        <v>8.504238000000001</v>
       </c>
       <c r="I12">
-        <v>0.1492553808785702</v>
+        <v>0.1228068209481894</v>
       </c>
       <c r="J12">
-        <v>0.1492553808785702</v>
+        <v>0.1228068209481894</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.66651766666667</v>
+        <v>28.38327833333333</v>
       </c>
       <c r="N12">
-        <v>43.999553</v>
+        <v>85.149835</v>
       </c>
       <c r="O12">
-        <v>0.3325452284055311</v>
+        <v>0.5588286527093509</v>
       </c>
       <c r="P12">
-        <v>0.3325452284055311</v>
+        <v>0.5588286527093509</v>
       </c>
       <c r="Q12">
-        <v>63.40908559256845</v>
+        <v>80.45938472230334</v>
       </c>
       <c r="R12">
-        <v>570.6817703331161</v>
+        <v>724.13446250073</v>
       </c>
       <c r="S12">
-        <v>0.04963416472501868</v>
+        <v>0.0686279702939952</v>
       </c>
       <c r="T12">
-        <v>0.04963416472501866</v>
+        <v>0.06862797029399519</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.323390666666667</v>
+        <v>2.834746</v>
       </c>
       <c r="H13">
-        <v>12.970172</v>
+        <v>8.504238000000001</v>
       </c>
       <c r="I13">
-        <v>0.1492553808785702</v>
+        <v>0.1228068209481894</v>
       </c>
       <c r="J13">
-        <v>0.1492553808785702</v>
+        <v>0.1228068209481894</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.822425</v>
+        <v>6.408436333333334</v>
       </c>
       <c r="N13">
-        <v>23.467275</v>
+        <v>19.225309</v>
       </c>
       <c r="O13">
-        <v>0.1773638546948513</v>
+        <v>0.1261735096303001</v>
       </c>
       <c r="P13">
-        <v>0.1773638546948513</v>
+        <v>0.1261735096303001</v>
       </c>
       <c r="Q13">
-        <v>33.8193992357</v>
+        <v>18.16628926217134</v>
       </c>
       <c r="R13">
-        <v>304.3745931213001</v>
+        <v>163.496603359542</v>
       </c>
       <c r="S13">
-        <v>0.02647250968657142</v>
+        <v>0.01549496760557291</v>
       </c>
       <c r="T13">
-        <v>0.02647250968657142</v>
+        <v>0.01549496760557291</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.61443666666667</v>
+        <v>5.954296666666667</v>
       </c>
       <c r="H14">
-        <v>31.84331</v>
+        <v>17.86289</v>
       </c>
       <c r="I14">
-        <v>0.3664396557335078</v>
+        <v>0.2579519451180933</v>
       </c>
       <c r="J14">
-        <v>0.3664396557335078</v>
+        <v>0.2579519451180933</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.05624166666666</v>
+        <v>5.440305333333334</v>
       </c>
       <c r="N14">
-        <v>33.16872499999999</v>
+        <v>16.320916</v>
       </c>
       <c r="O14">
-        <v>0.2506866656360179</v>
+        <v>0.1071123097215924</v>
       </c>
       <c r="P14">
-        <v>0.2506866656360179</v>
+        <v>0.1071123097215924</v>
       </c>
       <c r="Q14">
-        <v>117.3557769421944</v>
+        <v>32.39319191191556</v>
       </c>
       <c r="R14">
-        <v>1056.20199247975</v>
+        <v>291.53872720724</v>
       </c>
       <c r="S14">
-        <v>0.09186153545264339</v>
+        <v>0.02762982863877642</v>
       </c>
       <c r="T14">
-        <v>0.09186153545264339</v>
+        <v>0.02762982863877641</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.61443666666667</v>
+        <v>5.954296666666667</v>
       </c>
       <c r="H15">
-        <v>31.84331</v>
+        <v>17.86289</v>
       </c>
       <c r="I15">
-        <v>0.3664396557335078</v>
+        <v>0.2579519451180933</v>
       </c>
       <c r="J15">
-        <v>0.3664396557335078</v>
+        <v>0.2579519451180933</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.675932</v>
       </c>
       <c r="O15">
-        <v>0.2394042512635997</v>
+        <v>0.2078855279387566</v>
       </c>
       <c r="P15">
-        <v>0.2394042512635997</v>
+        <v>0.2078855279387566</v>
       </c>
       <c r="Q15">
-        <v>112.07405802388</v>
+        <v>62.86929877372</v>
       </c>
       <c r="R15">
-        <v>1008.66652221492</v>
+        <v>565.82368896348</v>
       </c>
       <c r="S15">
-        <v>0.08772721141417168</v>
+        <v>0.05362447629370399</v>
       </c>
       <c r="T15">
-        <v>0.08772721141417168</v>
+        <v>0.05362447629370399</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.61443666666667</v>
+        <v>5.954296666666667</v>
       </c>
       <c r="H16">
-        <v>31.84331</v>
+        <v>17.86289</v>
       </c>
       <c r="I16">
-        <v>0.3664396557335078</v>
+        <v>0.2579519451180933</v>
       </c>
       <c r="J16">
-        <v>0.3664396557335078</v>
+        <v>0.2579519451180933</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.66651766666667</v>
+        <v>28.38327833333333</v>
       </c>
       <c r="N16">
-        <v>43.999553</v>
+        <v>85.149835</v>
       </c>
       <c r="O16">
-        <v>0.3325452284055311</v>
+        <v>0.5588286527093509</v>
       </c>
       <c r="P16">
-        <v>0.3325452284055311</v>
+        <v>0.5588286527093509</v>
       </c>
       <c r="Q16">
-        <v>155.6768228933811</v>
+        <v>169.0024595692389</v>
       </c>
       <c r="R16">
-        <v>1401.09140604043</v>
+        <v>1521.02213612315</v>
       </c>
       <c r="S16">
-        <v>0.1218577590127435</v>
+        <v>0.1441509379541005</v>
       </c>
       <c r="T16">
-        <v>0.1218577590127435</v>
+        <v>0.1441509379541005</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.61443666666667</v>
+        <v>5.954296666666667</v>
       </c>
       <c r="H17">
-        <v>31.84331</v>
+        <v>17.86289</v>
       </c>
       <c r="I17">
-        <v>0.3664396557335078</v>
+        <v>0.2579519451180933</v>
       </c>
       <c r="J17">
-        <v>0.3664396557335078</v>
+        <v>0.2579519451180933</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.822425</v>
+        <v>6.408436333333334</v>
       </c>
       <c r="N17">
-        <v>23.467275</v>
+        <v>19.225309</v>
       </c>
       <c r="O17">
-        <v>0.1773638546948513</v>
+        <v>0.1261735096303001</v>
       </c>
       <c r="P17">
-        <v>0.1773638546948513</v>
+        <v>0.1261735096303001</v>
       </c>
       <c r="Q17">
-        <v>83.03063474225</v>
+        <v>38.15773109811223</v>
       </c>
       <c r="R17">
-        <v>747.27571268025</v>
+        <v>343.41957988301</v>
       </c>
       <c r="S17">
-        <v>0.06499314985394923</v>
+        <v>0.03254670223151237</v>
       </c>
       <c r="T17">
-        <v>0.06499314985394923</v>
+        <v>0.03254670223151237</v>
       </c>
     </row>
   </sheetData>
